--- a/biology/Zoologie/Cypoides/Cypoides.xlsx
+++ b/biology/Zoologie/Cypoides/Cypoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cypoides est un genre de lépidoptères appartenant à la famille des Sphingidae, à la sous-famille des Smerinthinae et à la tribu des Smerinthini .
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Répartition
 Asie du sud-est</t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,14 +612,84 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le genre a été décrit par l'entomologiste japonais Shōnen Matsumura en 1921[1].
-L'espèce type pour le genre est Cypoides formosana Wileman, 1910
-Synonymie
-Amorphulus Mell, 1922
-Liste des espèces
-Cypoides chinensis - (Rothschild &amp; Jordan, 1903)
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le genre a été décrit par l'entomologiste japonais Shōnen Matsumura en 1921.
+L'espèce type pour le genre est Cypoides formosana Wileman, 1910</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cypoides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypoides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Amorphulus Mell, 1922</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cypoides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypoides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cypoides chinensis - (Rothschild &amp; Jordan, 1903)
 Cypoides parachinensis - Brechlin, 2009</t>
         </is>
       </c>
